--- a/output/shotgun_paris_events_2025-11-27.xlsx
+++ b/output/shotgun_paris_events_2025-11-27.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No events found for this date</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -472,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +516,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No events found for this date</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -513,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +571,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No events found for this date</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -554,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +626,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No events found for this date</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -595,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +681,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No events found for this date</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -636,7 +706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,6 +736,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No events found for this date</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -677,7 +761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,6 +791,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No events found for this date</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
